--- a/Desktop/WBS.xlsx
+++ b/Desktop/WBS.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1220" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>Create email communication</t>
   </si>
@@ -135,13 +136,64 @@
   </si>
   <si>
     <t>Paul H.</t>
+  </si>
+  <si>
+    <t>GitHub Desktop as Standard</t>
+  </si>
+  <si>
+    <t>GitHub Flow may be the standard</t>
+  </si>
+  <si>
+    <t>May require more discussion</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>In-Progress</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>8/22 - 8/26</t>
+  </si>
+  <si>
+    <t>8/29 - 9/2</t>
+  </si>
+  <si>
+    <t>9/5 - 9/9</t>
+  </si>
+  <si>
+    <t>Includes Webcenter</t>
+  </si>
+  <si>
+    <t>Includes .net</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Discussed Github homepage</t>
+  </si>
+  <si>
+    <t>9/12  - 9/16</t>
+  </si>
+  <si>
+    <t>9/19 - 9/23</t>
+  </si>
+  <si>
+    <t>update</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,10 +225,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -199,12 +278,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,409 +566,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
-        <f>SUM(B4:B6)</f>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <f>SUM(C4:C6)</f>
         <v>6</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="1"/>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C8">
-        <f>SUM(B9:B11)</f>
+      <c r="B8" s="2"/>
+      <c r="D8">
+        <f>SUM(C9:C11)</f>
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <f>SUM(B14:B17)</f>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <f>SUM(C14:C17)</f>
         <v>12</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19">
-        <f>SUM(B20:B23)</f>
+      <c r="B19" s="2"/>
+      <c r="D19">
+        <f>SUM(C20:C23)</f>
         <v>12</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="1"/>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
-        <f>SUM(B26:B28)</f>
+      <c r="B25" s="2"/>
+      <c r="D25">
+        <f>SUM(C26:C28)</f>
         <v>8</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="B26" s="1"/>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+      <c r="B28" s="1"/>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
-        <f>SUM(B31:B32)</f>
+      <c r="B30" s="6"/>
+      <c r="D30" s="7">
+        <f>SUM(C31:C32)</f>
         <v>6</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B32">
-        <v>4</v>
-      </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="7">
+        <v>4</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C34">
-        <f>SUM(B35:B37)</f>
+      <c r="B34" s="6"/>
+      <c r="D34" s="7">
+        <f>SUM(C35:C37)</f>
         <v>10</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>4</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="7">
+        <v>4</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B37">
-        <v>4</v>
-      </c>
-      <c r="D37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="9"/>
+      <c r="C37" s="7">
+        <v>4</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C39">
-        <f>SUM(B40:B41)</f>
-        <v>4</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="B39" s="2"/>
+      <c r="D39">
+        <f>SUM(C40:C41)</f>
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="1"/>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>23</v>
       </c>
-      <c r="C45">
-        <f>SUM(C1:C44)</f>
+      <c r="D45">
+        <f>SUM(D1:D44)</f>
         <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/Desktop/WBS.xlsx
+++ b/Desktop/WBS.xlsx
@@ -186,7 +186,7 @@
     <t>9/19 - 9/23</t>
   </si>
   <si>
-    <t>update</t>
+    <t>2nd update</t>
   </si>
 </sst>
 </file>
@@ -569,7 +569,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" zoomScalePageLayoutView="134" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
